--- a/tescase.xlsx
+++ b/tescase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop88\Documents\DL_CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdo2\Desktop\abc\DL_CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E556BFB-9F67-4B14-8DAA-4D15DCBE5276}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
-  <si>
-    <t>Custom Field</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Code Related</t>
   </si>
   <si>
-    <t>FillingMode: Variable</t>
-  </si>
-  <si>
-    <t>CustomString: No</t>
-  </si>
-  <si>
     <t>Default</t>
-  </si>
-  <si>
-    <t>CustomString: NoRead</t>
   </si>
   <si>
     <r>
@@ -302,15 +285,6 @@
     <t>Filling mode (Fixed)</t>
   </si>
   <si>
-    <t>Message 1</t>
-  </si>
-  <si>
-    <t>Message 2</t>
-  </si>
-  <si>
-    <t>Cutting (Variable)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Length : </t>
     </r>
@@ -705,101 +679,6 @@
   </si>
   <si>
     <r>
-      <t>Length : &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>code_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LeftAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NotCut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                CustomString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Length : </t>
     </r>
     <r>
@@ -887,10 +766,214 @@
     <t>Cutting Generic</t>
   </si>
   <si>
-    <t>Generic</t>
+    <r>
+      <t xml:space="preserve">Length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=Code_length,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Justification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LeftAligned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CuttingMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeepAfter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                PatternString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/3Code</t>
+    </r>
   </si>
   <si>
-    <t>x</t>
+    <r>
+      <t xml:space="preserve">Length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=Code_length,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Justification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RigthAligned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CuttingMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeepAfter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                PatternString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/3Code</t>
+    </r>
   </si>
   <si>
     <r>
@@ -954,7 +1037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LeftAligned</t>
+      <t>RigthAligned</t>
     </r>
     <r>
       <rPr>
@@ -974,7 +1057,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>KeepAfter</t>
+      <t>KeepBefore</t>
     </r>
     <r>
       <rPr>
@@ -1059,7 +1142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RigthAligned</t>
+      <t>LeftAligned</t>
     </r>
     <r>
       <rPr>
@@ -1074,12 +1157,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepAfter</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeepBefore</t>
     </r>
     <r>
       <rPr>
@@ -1124,7 +1207,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;=Code_length,</t>
+      <t>&lt;Code_length,</t>
     </r>
     <r>
       <rPr>
@@ -1159,12 +1242,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RigthAligned</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LeftAligned</t>
     </r>
     <r>
       <rPr>
@@ -1229,7 +1312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;=Code_length,</t>
+      <t>&lt;Code_length</t>
     </r>
     <r>
       <rPr>
@@ -1269,7 +1352,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LeftAligned</t>
+      <t>RigthAligned</t>
     </r>
     <r>
       <rPr>
@@ -1284,12 +1367,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepBefore</t>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeepAfter</t>
     </r>
     <r>
       <rPr>
@@ -1334,7 +1417,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;Code_length,</t>
+      <t>&lt;Code_length</t>
     </r>
     <r>
       <rPr>
@@ -1369,7 +1452,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1394,7 +1477,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>KeepBefore</t>
+      <t>KeepAfter</t>
     </r>
     <r>
       <rPr>
@@ -1419,17 +1502,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve">Length : </t>
     </r>
     <r>
       <rPr>
@@ -1474,7 +1547,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1494,12 +1567,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepAfter</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeepBefore</t>
     </r>
     <r>
       <rPr>
@@ -1514,617 +1587,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Code_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LeftAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepAfter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Code_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RigthAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepBefore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;PatternString,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LeftAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepBefore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;PatternString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RigthAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepBefore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;PatternString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RigthAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepAfter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;PatternString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Justification: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LeftAligned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  CuttingMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeepAfter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                PatternString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2152,6 +1615,16 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -2207,27 +1680,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NotCut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                CustomString: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
+      <t>Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                </t>
     </r>
   </si>
   <si>
@@ -2262,7 +1725,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> FillingPattern: </t>
+      <t xml:space="preserve">, FillingPattern: </t>
     </r>
     <r>
       <rPr>
@@ -2292,7 +1755,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RightAligned</t>
+      <t>LeftAligned</t>
     </r>
     <r>
       <rPr>
@@ -2327,6 +1790,149 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">FillingMode: Fixed length       Length :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; Code_Length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  , Justification: LeftAligned</t>
+    </r>
+  </si>
+  <si>
+    <t>FillingMode</t>
+  </si>
+  <si>
+    <r>
+      <t>Length : &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Justification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LeftAligned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CuttingMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NotCut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                CustomString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Length : </t>
     </r>
     <r>
@@ -2342,22 +1948,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, FillingPattern: </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
     </r>
     <r>
       <rPr>
@@ -2387,6 +1983,196 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>RightAligned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CuttingMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NotCut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                CustomString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Length : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;code_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Justification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RightAligned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CuttingMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NotCut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                CustomString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13254</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Length : &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FillingPattern: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Justification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LeftAligned</t>
     </r>
     <r>
@@ -2407,24 +2193,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                </t>
+      <t>NotCut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                CustomString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2313</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2448,18 +2244,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2487,13 +2277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,17 +2309,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2540,25 +2328,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2874,272 +2662,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10">
         <v>5</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10">
         <v>6</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11">
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3150,344 +2919,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" customWidth="1"/>
-    <col min="5" max="5" width="23.86328125" customWidth="1"/>
-    <col min="6" max="6" width="23.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="D5" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9">
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E32">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="B23:B31"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C11:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
